--- a/medicine/Soins infirmiers et profession infirmière/Réanimation_cardiopulmonaire/Réanimation_cardiopulmonaire.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Réanimation_cardiopulmonaire/Réanimation_cardiopulmonaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9animation_cardiopulmonaire</t>
+          <t>Réanimation_cardiopulmonaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réanimation cardiopulmonaire (RCP) ou réanimation cardiorespiratoire (RCR ; parfois CPR, de l'anglais 'cardiopulmonary resuscitation') est un ensemble de manœuvres destinées à assurer une oxygénation des organes lorsqu'une victime fait un arrêt cardiorespiratoire (ACR) : son cœur ne bat alors plus, privant de sang les organes, et il faut donc pratiquer la RCP pour y suppléer[1].
-Lorsque la circulation du sang s'arrête, les organes, dont le cerveau et le cœur lui-même, ne sont plus alimentés en oxygène et commencent à s'altérer : c'est l'anoxie. Des lésions cérébrales apparaissent dès la troisième minute, et les chances de survie diminuent de 10 % par minute sans réanimation et sont donc quasiment nulles après dix minutes d'arrêt circulatoire sans réanimation, sauf cas particulier[2]. Le fait d'oxygéner artificiellement le sang et de le faire circuler permet d'éviter ou de ralentir cette dégradation, et donc d'accroître les chances de survie et de minimiser les séquelles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réanimation cardiopulmonaire (RCP) ou réanimation cardiorespiratoire (RCR ; parfois CPR, de l'anglais 'cardiopulmonary resuscitation') est un ensemble de manœuvres destinées à assurer une oxygénation des organes lorsqu'une victime fait un arrêt cardiorespiratoire (ACR) : son cœur ne bat alors plus, privant de sang les organes, et il faut donc pratiquer la RCP pour y suppléer.
+Lorsque la circulation du sang s'arrête, les organes, dont le cerveau et le cœur lui-même, ne sont plus alimentés en oxygène et commencent à s'altérer : c'est l'anoxie. Des lésions cérébrales apparaissent dès la troisième minute, et les chances de survie diminuent de 10 % par minute sans réanimation et sont donc quasiment nulles après dix minutes d'arrêt circulatoire sans réanimation, sauf cas particulier. Le fait d'oxygéner artificiellement le sang et de le faire circuler permet d'éviter ou de ralentir cette dégradation, et donc d'accroître les chances de survie et de minimiser les séquelles.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9animation_cardiopulmonaire</t>
+          <t>Réanimation_cardiopulmonaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description sommaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La réanimation cardiopulmonaire est séparée en réanimation cardiopulmonaire de base (réalisable par tout le monde) et réanimation spécialisée (réalisée par les professionnels de santé formé à ce type de réanimation).
 Elle est composée de l'association de :
@@ -526,7 +540,7 @@
 La réanimation cardiopulmonaire doit se pratiquer sur toute personne en état de mort apparente, c'est-à-dire :
 inconsciente : la personne ne bouge pas spontanément, elle ne réagit pas au toucher ni à la parole ;
 et qui ne respire pas : après libération des voies aériennes ainsi que l'élévation du menton (dégrafage des vêtements pouvant gêner la respiration, mise en bascule prudente de la tête), on ne voit aucun mouvement respiratoire et on ne sent pas d'air sortir par le nez ou la bouche.
-À moins d'y avoir été formé, il ne faut pas chercher à prendre le pouls de la victime[3]. Cette opération n'est fiable que si elle est réalisée par une personne entraînée et retarde d'autant la réanimation. Les cas d'arrêt respiratoire sans arrêt cardiaque sont rares et ne sont que temporaires. La conduite à adopter, pour le grand public, est la réanimation.
+À moins d'y avoir été formé, il ne faut pas chercher à prendre le pouls de la victime. Cette opération n'est fiable que si elle est réalisée par une personne entraînée et retarde d'autant la réanimation. Les cas d'arrêt respiratoire sans arrêt cardiaque sont rares et ne sont que temporaires. La conduite à adopter, pour le grand public, est la réanimation.
 Les cas typiques de mort apparente sont la mort subite (la personne s'écroule sans raison apparente), la noyade et le choc électrique. Il peut aussi y avoir une origine traumatique autre, comme une asphyxie, une chute de hauteur ou un accident de la circulation. La mort apparente peut être aussi due à une perte de sang importante (il faut alors d'abord stopper l'hémorragie).
 Dans tous les cas, la priorité reste la protection. Le sauveteur doit repérer et éliminer tout danger, par exemple l'appareil électrique dans le cas de la victime électrocutée.
 Dans le cas d'un adulte qui s'effondre sans raison, et lorsqu'on est seul (sauveteur isolé), la priorité est l'arrivée des secours, il faut donc alerter les secours avant de commencer la RCP. Celle-ci améliore les chances de survie en attendant les secours.
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9animation_cardiopulmonaire</t>
+          <t>Réanimation_cardiopulmonaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,9 +574,11 @@
           <t>Limites temporelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le temps dans lequel une réanimation cardiopulmonaire peut encore fonctionner n'est pas clair, et cela dépend de nombreux facteurs. Plusieurs guides officiels recommandent de poursuivre une réanimation cardiopulmonaire jusqu'à l'arrivée des services médicaux d'urgence (pour essayer de garder le patient en vie ainsi, au moins). Aussi, les mêmes guides indiquent qu’il faut demander un défibrillateur d’urgence dans l'environnement (un DAE ou DEA, AED en anglais; les défibrillateurs sont des appareils fréquents aujourd’hui), pour essayer une défibrillation automatique dès que possible, avant de considérer que le patient est déjà mort[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le temps dans lequel une réanimation cardiopulmonaire peut encore fonctionner n'est pas clair, et cela dépend de nombreux facteurs. Plusieurs guides officiels recommandent de poursuivre une réanimation cardiopulmonaire jusqu'à l'arrivée des services médicaux d'urgence (pour essayer de garder le patient en vie ainsi, au moins). Aussi, les mêmes guides indiquent qu’il faut demander un défibrillateur d’urgence dans l'environnement (un DAE ou DEA, AED en anglais; les défibrillateurs sont des appareils fréquents aujourd’hui), pour essayer une défibrillation automatique dès que possible, avant de considérer que le patient est déjà mort.
 </t>
         </is>
       </c>
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9animation_cardiopulmonaire</t>
+          <t>Réanimation_cardiopulmonaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,33 +607,214 @@
           <t>Principes et pratique de la réanimation cardiopulmonaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La réanimation cardiopulmonaire (RCP, ou cardiorespiratoire: RCR) part du principe fondamental que la personne est en arrêt circulatoire (la cessation des battements du cœur). Si ce n'est pas le cas, un des éléments du bilan l'indiquera, il ne faut alors pas faire de réanimation cardiopulmonaire.
 Un processus de réanimation cardiopulmonaire (RCP) se compose des aspects suivants, qui se produisent chronologiquement:
-Protection
-La protection est basé sur assurer la sécurité de la zone et des personnes (contre le feu, les risques électriques ou autres).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Réanimation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principes et pratique de la réanimation cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protection est basé sur assurer la sécurité de la zone et des personnes (contre le feu, les risques électriques ou autres).
 Ainsi, le patient peut être déplacé vers un espace avec plus de sécurité, mais, si le patient semble avoir une blessure grave de la colonne vertébrale, soit à le dos ou à le cou, il est recommandé de ne pas le déplacer, ou, s'il est nécessaire, le faire le moins possible, et avec beaucoup de soin, tenant sa tête dans la même position, jusqu'à ce qu'il soit dans un endroit qui a une sécurité suffisante.
-Bilan
-C'est une évaluation de la situation: reconnaître l'arrêt cardiorespiratoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Réanimation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principes et pratique de la réanimation cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bilan</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une évaluation de la situation: reconnaître l'arrêt cardiorespiratoire.
 Une victime a besoin d'une réanimation cardiopulmonaire (RCP ou RCR) si elle ne respire pas ou n'a pas battements de cœur. Elle peut également le nécessiter si sa respiration est trop faible (pratiquement nulle, peut-être juste un geste d'ouvrir la bouche), ou si sa pouls est trop faible (pratiquement nul, peut-être seulement un battement isolé qui a été détecté à quelque moment). Dans tous les cas, le patient serait inconscient (ou en un état environ l’inconscience).
 Il est recommandé d'appeler «à l'aide!» dès la constatation de l'inconscience, et à chaque étape du bilan.
-Le sauveteur peut vérifier[5] la  respiration de la victime en plaçant une oreille sur sa bouche et en regardant à la fois si sa poitrine se déplace de bas en haut, gonflé par l'air.
+Le sauveteur peut vérifier la  respiration de la victime en plaçant une oreille sur sa bouche et en regardant à la fois si sa poitrine se déplace de bas en haut, gonflé par l'air.
 Aussi, il est possible de vérifier les battements du cœur en le pouls carotide: dans chaque côté de le cou, plaçant deux doigts dans une rainure qui est formé en parallèle à sa voie respiratoire (trachée), au niveau du larynx, approximativement entre sa tête et sa pomme d'Adam. Si un problème rend impossible la vérification de le pouls carotide, les battements cardiaques peuvent être vérifiés dans le pouls radiale: plaçant deux doigts au poignet, sous la partie du pouce, avec une pression intermédiaire.
-Alerter
-Cette partie commence par envoyer quelqu'un demander les secours, où si l'on est isolé, demander soi-même les secours en appelant le téléphone d'urgence 15 ou le 112 (il y a d'autres téléphones d'urgence de différents pays ici).
-Aussi, envoyer quelqu'un demander un défibrillateur automatique externe (DAE ou DEA, AED en anglais) ou semi-automatique (DSA), s'il y en a un de disponible (des défibrillateurs sont très fréquentes[6] aujourd’hui).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Réanimation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principes et pratique de la réanimation cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alerter</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette partie commence par envoyer quelqu'un demander les secours, où si l'on est isolé, demander soi-même les secours en appelant le téléphone d'urgence 15 ou le 112 (il y a d'autres téléphones d'urgence de différents pays ici).
+Aussi, envoyer quelqu'un demander un défibrillateur automatique externe (DAE ou DEA, AED en anglais) ou semi-automatique (DSA), s'il y en a un de disponible (des défibrillateurs sont très fréquentes aujourd’hui).
 Un défibrillateur est un appareil pour faire une défibrillation (choc électrique) qui peut donner à haute voix ses propres instructions enregistrées. Ne pas y aller le chercher soi-même (si possible) pour faire la réanimation cardiopulmonaire pendant ce temps. Il est nécessaire de mettre le défibrillateur en œuvre dès que possible.
-Pratique de la RCP
-La réanimation cardiopulmonaire (RCP) est la répétition continue d'un cycle de séries de 30 compressions thoraciques qui sont suivies de séries de 2 ventilations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Réanimation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Principes et pratique de la réanimation cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pratique de la RCP</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réanimation cardiopulmonaire (RCP) est la répétition continue d'un cycle de séries de 30 compressions thoraciques qui sont suivies de séries de 2 ventilations.
 Ce cycle peut être interrompu le plus brièvement possible pour la mise en place d'un défibrillateur (généralement automatique) sur la victime.
 Causes respiratoires et d'enfant: Si la cause d'arrêt circulatoire est respiratoire (normalement dans les cas de noyade), ou le patient est un enfant avant la puberté (parce que la cause de son arrêt serait probablement respiratoire), la réalisation de 5 ventilations additionnelles (insufflations, lire ci-dessous) est nécessaire avant de commencer (seulement une série additionnelle de 5 ventilations, une seule fois, pour ventiler les poumons au début de la réanimation).
-Compressions thoraciques
-La circulation sanguine se fait grâce aux compressions thoraciques, appelées aussi 'massage cardiaque externe'. Mais l'objectif principal des compressions est de maintenir la vie du patient, en faisant circuler son sang, car ce n'est pas habituel la récupération de son pouls sans défibrillation (voir ci-dessous).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Réanimation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Principes et pratique de la réanimation cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pratique de la RCP</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Compressions thoraciques</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La circulation sanguine se fait grâce aux compressions thoraciques, appelées aussi 'massage cardiaque externe'. Mais l'objectif principal des compressions est de maintenir la vie du patient, en faisant circuler son sang, car ce n'est pas habituel la récupération de son pouls sans défibrillation (voir ci-dessous).
 Pour que la compression thoracique soit efficace, il faut que la victime soit installée sur un plan dur ; en particulier, si la victime est allongée sur un lit, il faut la déposer à terre avant de commencer les manœuvres de réanimation.
 Les compressions thoraciques consistent à pousser sur la moitié inférieure de l'os qui parcourt le centre de la poitrine du cou au ventre (l'os sternum) afin de comprimer la poitrine. La position des mains est importante si l'on veut minimiser les risques de fracture des côtes. Il faut aussi s'attacher à faire des compressions régulières, à laisser la poitrine reprendre sa forme initiale entre deux compressions, et à ce que le temps de relâchement soit égal au temps de compression. En effet, le relâchement de la poitrine permet le retour veineux, capital pour la bonne circulation.
 La façon standardisée de faire les compressions pendant longtemps est de mettre une main sur l'autre, avec les bras étirés, et de tomber un peu vers l'avant et vers l'arrière, comme si l'un se balançait. Le fait de changer de position avec les compressions fatigue et ne permet pas d'assurer un massage cardiaque efficace très longtemps.
-Rythme efficace de compression: il est de 100 à 120 compressions par minute (presque 2 par seconde). À titre comparatif, cela correspond au rythme de la chanson Stayin' Alive des Bee Gees[7].
+Rythme efficace de compression: il est de 100 à 120 compressions par minute (presque 2 par seconde). À titre comparatif, cela correspond au rythme de la chanson Stayin' Alive des Bee Gees.
 Afin d'adopter un rythme régulier et de respecter l'égalité temps de compression/temps de relâchement, et pour être sûr de bien faire le bon nombre de compressions successives, il est conseillé de compter à voix haute, sous la forme :
 chiffre (durant la compression) - et (durant le relâchement)
 ainsi, on comptera à voix haute :
@@ -626,58 +823,169 @@
 sur l'adulte et l'enfant de plus de huit ans, le sternum doit descendre de 5  à   6 cm;
 sur l'enfant entre un et huit ans, le sternum doit descendre de 1/3 de l'épaisseur du thorax; la RCP se fait avec une main;
 sur le nourrisson de moins d'un an, le sternum doit descendre de 1/3 de l'épaisseur du thorax (ou environ 4 cm); la RCP se fait avec deux doigts.
-Cas particulier : femme enceinte: Dans le cas d'une femme visiblement enceinte, et pendant que l'on réalise le massage cardiaque (compressions thoraciques), il convient de surélever le flanc ou la fesse droite pour améliorer le retour veineux, en libérant la veine cave inférieure du poids du fœtus[8]. Cela peut se faire en mettant un linge plié sous la fesse droite. On peut aussi laisser la victime strictement plat-dos et demander à une personne de pousser le fœtus vers la gauche.
-Ventilations (insufflations bouche à la bouche)
-Las ventilations sont faites pour l'oxygénation du sang. Mais seulement si le sauveteur sait réaliser le bouche à bouche[3]. C'est parce que les compressions thoraciques assurent déjà une ventilation minimale sans bouche-à-bouche, et cela semble aussi efficace, si ce n'est plus efficace, que le massage cardiaque avec bouche-à-bouche, du moins chez l'adulte[9],[10] (le bouche-à-bouche n'est donc plus enseigné dans les formations courtes à destination du grand public)[3]. Cependant, chez le sujet jeune (moins de 20 ans) ou lorsque la prise en charge de l'arrêt est tardive, la mise en route d'une ventilation pourrait conserver des bénéfices[11].
+Cas particulier : femme enceinte: Dans le cas d'une femme visiblement enceinte, et pendant que l'on réalise le massage cardiaque (compressions thoraciques), il convient de surélever le flanc ou la fesse droite pour améliorer le retour veineux, en libérant la veine cave inférieure du poids du fœtus. Cela peut se faire en mettant un linge plié sous la fesse droite. On peut aussi laisser la victime strictement plat-dos et demander à une personne de pousser le fœtus vers la gauche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Réanimation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Principes et pratique de la réanimation cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pratique de la RCP</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ventilations (insufflations bouche à la bouche)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Las ventilations sont faites pour l'oxygénation du sang. Mais seulement si le sauveteur sait réaliser le bouche à bouche. C'est parce que les compressions thoraciques assurent déjà une ventilation minimale sans bouche-à-bouche, et cela semble aussi efficace, si ce n'est plus efficace, que le massage cardiaque avec bouche-à-bouche, du moins chez l'adulte, (le bouche-à-bouche n'est donc plus enseigné dans les formations courtes à destination du grand public). Cependant, chez le sujet jeune (moins de 20 ans) ou lorsque la prise en charge de l'arrêt est tardive, la mise en route d'une ventilation pourrait conserver des bénéfices.
 Pour faire les ventilations, il faut pincer le nez du patient et souffler de l'air dans sa bouche (hermétiquement, sans que l'air s'échappe). S'il y a des masques ou des filtres de ventilation, il est pratique de les utiliser en les mettant entre la bouche du sauveteur et de la victime, afin de sceller le visage et d'éviter les infections. Les jeunes enfants peuvent avoir besoin que la bouche du sauveteur couvre le nez et la bouche en même temps.
 Les insufflations sont de 2 à 3 secondes stoppées dès que la poitrine se soulève (ne pas continuer de souffler si la poitrine se soulève, ce qui risquerait de faire vomir la victime et d'obstruer ses voies aériennes).
 Lorsque les secours arrivent, l'on utilise un ballon insufflateur (avec un masque ou un embout buccal), idéalement branché à une bouteille de dioxygène médical,pouvant augmenter la fraction inspirée de dioxygène (FiO2), et l'on peut aller jusqu'à insuffler du dioxygène pur lorsque l'on utilise un ballon de réserve.
-Il existe une technique de réanimation à un seul secouriste en utilisant le ballon insufflateur, ce qui permet de bénéficier de l'apport en oxygène et de libérer un secouriste. Dans ce cas, le secouriste se place à la tête et effectue les compressions de cette position, en se penchant au-dessus du visage[12]. L'efficacité de cette manœuvre est cependant sujette à caution[13].
+Il existe une technique de réanimation à un seul secouriste en utilisant le ballon insufflateur, ce qui permet de bénéficier de l'apport en oxygène et de libérer un secouriste. Dans ce cas, le secouriste se place à la tête et effectue les compressions de cette position, en se penchant au-dessus du visage. L'efficacité de cette manœuvre est cependant sujette à caution.
 L'air que l'on insuffle passe vers les poumons, mais aussi vers l'estomac. Celui-ci se gonfle au fur et à mesure, et si jamais il se dégonfle, il risque d'entraîner avec lui son contenu acide (suc gastrique) qui vont venir détériorer les poumons (syndrome de Mendelson) et compromettre gravement la survie de la victime. Il faut donc souffler sans excès, régulièrement sur deux secondes, et s'arrêter dès que l'on voit la poitrine se soulever. La ventilation au ballon sera relayé par une ventilation sur sonde, après intubation orotrachéale lorsque l'équipe médicale est arrivé sur place.
 L'alternance de 30 compressions thoraciques et 2 insufflations est continu jusqu'à l'arrivée du personnel médical ou du défibrillateur (voir ci-dessous).
-Mise en œuvre d'un défibrillateur
-Le défibrillateur automatique externe (DAE ou DEA, AED en anglais) ou semi-automatique (DSA) est un appareil qui permet de délivrer un choc électrique en cas de fibrillation ventriculaire ou de tachycardie ventriculaire très rapide. La défibrillation ne corrige pas tous les problèmes cardiaques, mais il est recommandé de l'essayer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Réanimation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Principes et pratique de la réanimation cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mise en œuvre d'un défibrillateur</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le défibrillateur automatique externe (DAE ou DEA, AED en anglais) ou semi-automatique (DSA) est un appareil qui permet de délivrer un choc électrique en cas de fibrillation ventriculaire ou de tachycardie ventriculaire très rapide. La défibrillation ne corrige pas tous les problèmes cardiaques, mais il est recommandé de l'essayer.
 Dès qu'un défibrillateur est disponible, il faut l'utiliser sur la victime inconsciente (soit utilisé par le saveteur qui faisait les manœuvres de RCP pour la réanimation, ou par l'autre sauveteur, dans ce dernier cas n’arrêter pas  les manœuvres), en suivant les instructions vocales enregistrées du défibrillateur, pour faire une défibrillation (choc électrique). Le défibrillateur automatique externe donne des instructions à haute voix, mais, dans certains modèles, si ses électrodes ont été posées sur le thorax dénudé de la victime. Il demande alors de pratiquer la réanimation (compressions thoraciques et insufflations) lorsque c'est utile. Il est fait pour être très simple d'emploi, il ne faut donc pas hésiter à l'utiliser sur la victime même si c'est la première fois.
 Tous les 5 cycles (donc toutes les 2 minutes) ou après chaque « Choc non recommandé » du DAE, les secouristes contrôlent l'absence de pouls. Si la victime a un pouls, le secouriste contrôle la reprise d'une respiration spontanée supérieure à 6 respirations/minute. Si elle respire, la victime est tournée en position latérale de sécurité. Si elle ne respire pas, les secouristes effectuent 10 insufflations avant de refaire un contrôle du pouls et de la respiration. Après un choc effectué par le DAE, les secouristes effectuent 5 cycles de RCP avant de contrôler le pouls.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>R%C3%A9animation_cardiopulmonaire</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Réanimation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Planches descriptives</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vérification des fonctions respiratoires : le secouriste écoute la respiration, essaye de sentir l'air sur sa joue, regarde si la poitrine monte et descend, et sent les mouvements de la poitrine.
 			Insufflation au bouche-à-bouche : La tête du patient est rejetée en arrière. Le secouriste ferme le nez du patient d'une main, tout en maintenant la bouche du patient ouverte en lui tenant le menton.
 			Placement de la main avant la CPR : La main se place, chez un adulte à deux doigts en haut du plexus solaire.
 			Position pour la CPR : Les bras sont maintenus tendus, les compressions viennent du mouvement des épaules.
-			Contrôle du pouls carotidien (n'est plus enseigné dans les formations courtes à destination du grand public[3] ; remplacé par l'appréciation du souffle respiratoire de la poitrine et de la bouche en 8-10 secondes)
+			Contrôle du pouls carotidien (n'est plus enseigné dans les formations courtes à destination du grand public ; remplacé par l'appréciation du souffle respiratoire de la poitrine et de la bouche en 8-10 secondes)
 			Vue de l'opérateur du défibrillateur : Un secouriste est à genoux à la tête de la victime et lui administre de l'oxygène. Si la tête de la victime est entre ses genoux, elle n'est pas serrée. Les électrodes de défibrillation sont collées.
-Historique des procédures
-Les procédures ont varié au cours du temps, en raison des progrès de la médecine (évolution des connaissances, évolution du traitement médical). Elles ont fait l'objet de recommandations faites par des sociétés savantes internationales :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Réanimation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Planches descriptives</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Historique des procédures</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Les procédures ont varié au cours du temps, en raison des progrès de la médecine (évolution des connaissances, évolution du traitement médical). Elles ont fait l'objet de recommandations faites par des sociétés savantes internationales :
 entre 1991 et 2000 :
 un sauveteur seul alternait 15 compressions thoraciques et 2 insufflations sur un adulte ou un enfant de plus de 8 ans ; les compressions se faisaient au rythme de 60 par minute,
 pour un nourrisson, il effectuait 4 insufflations initiales (2 lors du bilan, puis 2 après le passage de l'alerte) et alternait 5 compressions thoraciques et 1 insufflation,
@@ -692,78 +1000,82 @@
 en 2005 :
 on abandonne la distinction entre un et plusieurs secouristes pour la RCP de l'adulte,
 on passe à 30 compressions thoraciques alternées avec 2 insufflations en commençant par les compressions thoraciques,
-on admet que le défibrillateur est un maillon indispensable de la chaîne de survie[14],
-en 2010[15],[16] :
+on admet que le défibrillateur est un maillon indispensable de la chaîne de survie,
+en 2010, :
 les insufflations ne sont plus systématiquement recommandées.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>R%C3%A9animation_cardiopulmonaire</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Réanimation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>La RCP médicale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">La réanimation cardiopulmonaire spécialisée (RCPS) par une équipe médicale ou paramédicale est le dernier maillon de la chaîne de survie avant admission à l'hôpital. Dans le cas idéal, les gestes spécialisés sont pratiqués dans les dix minutes qui suivent l'arrêt cardiaque, après la défibrillation.
 La victime est intubée (connexion d'un respirateur artificiel aux voies respiratoires du patient par l'intermédiaire d'un tuyau que l'on glisse dans la trachée). Une voie d'abord veineuse est mise en place, soit périphérique (veines du bras) soit intra-osseuse (via un dispositif spécifique de ponction intraosseuse) et exceptionnellement par voie centrale (veine jugulaire, sous-clavière ou fémorale en cas d'impossibilité d'abord périphérique), tout en poursuivant les compressions thoraciques, y compris lors des insufflations : l'étanchéité du ballonnet de la sonde d'intubation empêche le dioxygène de ressortir lors des compressions.
 Un capnomètre est mis en place : il mesure la quantité de dioxyde de carbone expiré, c'est-à-dire l'efficacité de la réanimation. En effet, si le patient expire du CO2, c'est que le dioxygène est bien arrivé aux cellules, et que les cellules l'ont consommé, donc qu'elles vivent.
-On lui associe également l'administration de médicaments : adrénaline ou équivalents, isoprénaline si le cœur est trop lent, liquides de remplissage vasculaire ou d'alcalinisation suivant les cas. L'intérêt de l'administration systématique de médicaments reste cependant discuté : à très court terme, ils semblent améliorer le taux de retour à un rythme cardiaque mais n'améliore pas la survie à la sortie de l'hôpital[17]. Le défibrillateur du Samu peut être couplé à un stimulateur cardiaque externe si le cœur est trop lent.
-Sur une femme manifestement enceinte, si le fœtus est potentiellement viable mais que la réanimation est inefficace, il faut envisager une césarienne d'urgence[8].
+On lui associe également l'administration de médicaments : adrénaline ou équivalents, isoprénaline si le cœur est trop lent, liquides de remplissage vasculaire ou d'alcalinisation suivant les cas. L'intérêt de l'administration systématique de médicaments reste cependant discuté : à très court terme, ils semblent améliorer le taux de retour à un rythme cardiaque mais n'améliore pas la survie à la sortie de l'hôpital. Le défibrillateur du Samu peut être couplé à un stimulateur cardiaque externe si le cœur est trop lent.
+Sur une femme manifestement enceinte, si le fœtus est potentiellement viable mais que la réanimation est inefficace, il faut envisager une césarienne d'urgence.
 La pratique française veut que le patient ne soit transporté qu'à partir du moment où la situation hémodynamique est à peu près stable (pouls présent avec une pression artérielle existante). La réanimation cardiopulmonaire est donc poursuivie sur place jusqu'à échec (on n'arrive pas à réanimer le patient et celui-ci est déclaré décédé) ou succès. C'est la méthode dite du stay and play (« rester et jouer », c'est-à-dire agir sur place).
 Cela diffère avec les pratiques américaines qui préconisent le transport le plus rapidement possible vers un centre spécialisé, quel que soit l'état du patient. C'est la méthode du scoop and run (charger et courir). Cette différence s'explique en partie par l'absence de médicalisation des premiers secours, fonctionnant sur des paramedics, des secouristes paramédicaux pouvant faire des gestes infirmiers et médicaux (intubation, pose d'une voie veineuse et administration de médicaments) sur protocole.
-Si de nombreuses études scientifiques ont montré l'intérêt de la RCP par un témoin et d'une défibrillation précoce (dans les 8 minutes suivant l'arrêt cardiaque) sur la survie, l'intérêt de la pratique de soins médicaux sur place est moins évident en ce qui concerne les taux de survie. Cependant, outre le fait que cela soulage les services d'urgence hospitaliers, les équipes médicales (ou paramédicales) formées aux soins pré-hospitaliers avancés de maintien des fonctions vitales (SAMFV), peuvent prendre en charge les infarctus en cours de formation, et l'on enregistre alors une nette amélioration en termes de survie[18].
-La durée d'une réanimation, sans reprise d'un rythme cardiaque, est largement empirique. Elle ne dépasse cependant guère trente minutes[19].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>R%C3%A9animation_cardiopulmonaire</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Si de nombreuses études scientifiques ont montré l'intérêt de la RCP par un témoin et d'une défibrillation précoce (dans les 8 minutes suivant l'arrêt cardiaque) sur la survie, l'intérêt de la pratique de soins médicaux sur place est moins évident en ce qui concerne les taux de survie. Cependant, outre le fait que cela soulage les services d'urgence hospitaliers, les équipes médicales (ou paramédicales) formées aux soins pré-hospitaliers avancés de maintien des fonctions vitales (SAMFV), peuvent prendre en charge les infarctus en cours de formation, et l'on enregistre alors une nette amélioration en termes de survie.
+La durée d'une réanimation, sans reprise d'un rythme cardiaque, est largement empirique. Elle ne dépasse cependant guère trente minutes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Réanimation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>La RCP en situation de combat</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La doctrine française, inspirée par le Tactical combat casualty care américain[20] (TCCC) et le Battlefield advanced trauma life support britannique (BATLS), est la suivante[21].
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La doctrine française, inspirée par le Tactical combat casualty care américain (TCCC) et le Battlefield advanced trauma life support britannique (BATLS), est la suivante.
 En situation de combat, on distingue typiquement trois lieux : 
 le lieu exposé au feu ;
 le « nid de blessé », présentant une protection (par exemple un pan de mur) ;
@@ -781,101 +1093,107 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>R%C3%A9animation_cardiopulmonaire</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Réanimation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Résultats</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Le but de la réanimation cardiopulmonaire est de sauver des vies, mais aussi de réduire, autant que possible, les séquelles neurologiques.
 Le temps écoulé entre la survenue de l'arrêt cardiaque et la prise en charge de celui-ci (massage cardiaque externe) est appelé communément « no-flow » (absence de débit). Celui entre le début de la prise en charge et le retour à une circulation sanguine spontanée (permettant l'arrêt du massage) est appelé « low flow » (débit faible). Le pronostic dépend naturellement de ces deux paramètres.
-La proportion de personnes sortant vivantes de l'hôpital après un arrêt cardiorespiratoire n'excède pas 15 % mais peut atteindre un tiers des patients si la cause de l'arrêt est un trouble du rythme ventriculaire[22]. Le pronostic, vital aussi bien que fonctionnel, dépend également de la durée de la réanimation nécessaire pour retrouver un débit cardiaque spontané (« low flow ») : si, réalisée dans des conditions optimales, elle excède un quart d'heure, les chances de récupérations sont très faibles[23]. Chez l'enfant, la probabilité de récupération est cependant supérieure, même en cas de massage cardiaque prolongé[24].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>R%C3%A9animation_cardiopulmonaire</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+La proportion de personnes sortant vivantes de l'hôpital après un arrêt cardiorespiratoire n'excède pas 15 % mais peut atteindre un tiers des patients si la cause de l'arrêt est un trouble du rythme ventriculaire. Le pronostic, vital aussi bien que fonctionnel, dépend également de la durée de la réanimation nécessaire pour retrouver un débit cardiaque spontané (« low flow ») : si, réalisée dans des conditions optimales, elle excède un quart d'heure, les chances de récupérations sont très faibles. Chez l'enfant, la probabilité de récupération est cependant supérieure, même en cas de massage cardiaque prolongé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Réanimation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Méthodes périmées ou discutées</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cadre de la prise en charge médicale, il a été proposé de pratiquer une thrombolyse systématique[25],[26] : la présence d'un caillot de sang dans les artères est une des principales causes de l'arrêt cardiaque (infarctus du myocarde et embolie pulmonaire) et par ailleurs l'arrêt cardiaque s'accompagne de la formation de caillots minuscules dans le cerveau (microthrombi cérébraux), qui, en gênant une bonne oxygénation de certaines parties du cerveau lors des manœuvres de réanimation et en cas de reprise d'une activité cardiaque, vont entraîner des souffrances neurologiques. Le but de la thrombolyse (ou fibrinolyse) est de détruire ces caillots et donc d'améliorer les chances de survie sans séquelle.
-Ce traitement ne fait toutefois pas l'unanimité en raison des risques d'hémorragie (la thrombolyse s'oppose à la coagulation du sang), notamment, lors des compressions thoraciques, il peut se produire des fractures des côtes qui peuvent provoquer des saignements; la thrombolyse est par ailleurs contre-indiquée dans certains cas comme la dissection de l'aorte (fissuration de l'artère aorte) ou un accident vasculaire cérébral hémorragique comme la rupture d'anévrisme. Elle n'a pas prouvé son efficacité[27].
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cadre de la prise en charge médicale, il a été proposé de pratiquer une thrombolyse systématique, : la présence d'un caillot de sang dans les artères est une des principales causes de l'arrêt cardiaque (infarctus du myocarde et embolie pulmonaire) et par ailleurs l'arrêt cardiaque s'accompagne de la formation de caillots minuscules dans le cerveau (microthrombi cérébraux), qui, en gênant une bonne oxygénation de certaines parties du cerveau lors des manœuvres de réanimation et en cas de reprise d'une activité cardiaque, vont entraîner des souffrances neurologiques. Le but de la thrombolyse (ou fibrinolyse) est de détruire ces caillots et donc d'améliorer les chances de survie sans séquelle.
+Ce traitement ne fait toutefois pas l'unanimité en raison des risques d'hémorragie (la thrombolyse s'oppose à la coagulation du sang), notamment, lors des compressions thoraciques, il peut se produire des fractures des côtes qui peuvent provoquer des saignements; la thrombolyse est par ailleurs contre-indiquée dans certains cas comme la dissection de l'aorte (fissuration de l'artère aorte) ou un accident vasculaire cérébral hémorragique comme la rupture d'anévrisme. Elle n'a pas prouvé son efficacité.
 L'association de la ventilation artificielle avec les compressions thoraciques est apparue relativement récemment (sans doute dans les années 1960). D'autres méthodes existaient auparavant, qui étaient peu efficaces, voir totalement inefficaces ou même nuisibles[réf. souhaitée].
 </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>R%C3%A9animation_cardiopulmonaire</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Réanimation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9animation_cardiopulmonaire</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>La légende urbaine de la toux salvatrice</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">En cardiologie, on demande parfois aux patients de tousser afin de réguler le rythme cardiaque ; en effet, la toux provoque une augmentation de la pression de l'air dans les poumons, qui appuie sur les vaisseaux sanguins parcourant les poumons et provoque donc un pic de pression artérielle.
 Partant de là, certains ont proposé de tousser lorsque l'on « sent arriver » l'arrêt cardiaque. Cette idée a été reprise et largement diffusée, notamment par l'Internet, et est devenu une légende urbaine.
-Ce geste est cependant totalement inutile[28] : on ne « sent » pas arriver un arrêt cardiaque, car lorsqu'il survient, l'inconscience est immédiate ; aucun muscle ne peut agir et le patient ne peut pas tousser. De plus, lorsque l'on ressent des signes pouvant laisser penser à un infarctus du myocarde, les seuls gestes utiles sont d'appeler à l'aide, de faire prévenir les secours, et de s'allonger par terre ou s'asseoir contre un mur. En particulier, si l'on conduit un véhicule, il faut absolument se garer au plus vite, en sécurité, et si possible à proximité d'autres personnes qui auront ainsi la possibilité de prévenir les secours (le 15 pour le SAMU ou le 112 en Europe) si l'on devient incapable d'appeler soi-même. Il faut aussi déverrouiller les serrures afin que les secours n'aient pas à forcer les portes du véhicule.
+Ce geste est cependant totalement inutile : on ne « sent » pas arriver un arrêt cardiaque, car lorsqu'il survient, l'inconscience est immédiate ; aucun muscle ne peut agir et le patient ne peut pas tousser. De plus, lorsque l'on ressent des signes pouvant laisser penser à un infarctus du myocarde, les seuls gestes utiles sont d'appeler à l'aide, de faire prévenir les secours, et de s'allonger par terre ou s'asseoir contre un mur. En particulier, si l'on conduit un véhicule, il faut absolument se garer au plus vite, en sécurité, et si possible à proximité d'autres personnes qui auront ainsi la possibilité de prévenir les secours (le 15 pour le SAMU ou le 112 en Europe) si l'on devient incapable d'appeler soi-même. Il faut aussi déverrouiller les serrures afin que les secours n'aient pas à forcer les portes du véhicule.
 </t>
         </is>
       </c>
